--- a/17 - Análises de Eventos/Análise - Realizar cadastro de assistidos + Alocar assistidos em projetos.xlsx
+++ b/17 - Análises de Eventos/Análise - Realizar cadastro de assistidos + Alocar assistidos em projetos.xlsx
@@ -52,19 +52,19 @@
     <t>FB</t>
   </si>
   <si>
-    <t>Associado contata assistido</t>
+    <t>Associado recebe contato de possível novo assistido</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>Associado entrega ficha para assistido</t>
+    <t>Associado entrega ficha para novo assistido</t>
   </si>
   <si>
     <t>x(1)</t>
   </si>
   <si>
-    <t>Associado valida os dados preenchidos</t>
+    <t>Associado recebe ficha preenchida</t>
   </si>
   <si>
     <t>x(2)</t>
@@ -79,7 +79,7 @@
     <t>FA</t>
   </si>
   <si>
-    <t>Associado não valida os dados preenchidos</t>
+    <t>Associado não recebe ficha preenchida</t>
   </si>
   <si>
     <t>Alocar assistidos em projetos</t>
@@ -95,7 +95,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -114,9 +114,6 @@
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <name val="Arial"/>
     </font>
     <font>
@@ -157,7 +154,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border/>
     <border>
       <right style="thin">
@@ -208,25 +205,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
     </border>
     <border>
       <left style="thin">
@@ -257,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -294,45 +272,35 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -631,7 +599,7 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="19"/>
-      <c r="K3" s="11"/>
+      <c r="K3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="2"/>
@@ -650,7 +618,7 @@
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
       <c r="J4" s="19"/>
-      <c r="K4" s="11"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="2"/>
@@ -658,58 +626,58 @@
       <c r="C5" s="16">
         <v>3.0</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="18"/>
+      <c r="E5" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="F5" s="18"/>
-      <c r="G5" s="16" t="s">
-        <v>18</v>
-      </c>
+      <c r="G5" s="20"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
       <c r="J5" s="19"/>
-      <c r="K5" s="11"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" s="2"/>
-      <c r="B6" s="11"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="16">
         <v>4.0</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="16" t="s">
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="11"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
     </row>
     <row r="7">
       <c r="A7" s="11"/>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="23">
         <v>5.0</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="21" t="s">
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="9"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" s="25" t="s">
@@ -721,42 +689,41 @@
       <c r="C8" s="26">
         <v>1.0</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="29" t="s">
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="30"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="19"/>
       <c r="K8" s="5"/>
     </row>
     <row r="9">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
     </row>
     <row r="18">
-      <c r="F18" s="32"/>
+      <c r="F18" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="13">
     <mergeCell ref="J1:K2"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="A1:B2"/>
